--- a/SuppXLS/Scen_Wind_Profile.xlsx
+++ b/SuppXLS/Scen_Wind_Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Wyrwa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3854935C-355D-4FA7-A8F8-5B9273A9CB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC39E12-63C4-4185-AD21-C2F72633B1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>TimeSlice</t>
   </si>
@@ -107,12 +107,6 @@
   <si>
     <t>UP</t>
   </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>LO</t>
-  </si>
 </sst>
 </file>
 
@@ -122,23 +116,23 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="176" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0."/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#."/>
-    <numFmt numFmtId="180" formatCode="m/d/yy\ h:mm"/>
-    <numFmt numFmtId="181" formatCode="#.00"/>
-    <numFmt numFmtId="182" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="183" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="184" formatCode="yyyy"/>
-    <numFmt numFmtId="185" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="174" formatCode="#,##0."/>
+    <numFmt numFmtId="175" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="177" formatCode="#.00"/>
+    <numFmt numFmtId="178" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="179" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="180" formatCode="yyyy"/>
+    <numFmt numFmtId="181" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="78">
     <font>
@@ -1362,7 +1356,7 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="24" borderId="5">
+    <xf numFmtId="173" fontId="2" fillId="24" borderId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1431,15 +1425,15 @@
     <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="174" fontId="54" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="54" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="174" fontId="54" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="175" fontId="54" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1463,13 +1457,13 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1482,13 +1476,13 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="54" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
@@ -1649,7 +1643,7 @@
     </xf>
     <xf numFmtId="40" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1978,13 +1972,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1996,7 +1990,7 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2112,11 +2106,11 @@
     <xf numFmtId="0" fontId="30" fillId="31" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="72" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="72" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3185,7 +3179,7 @@
   <dimension ref="B2:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3285,8 +3279,8 @@
       <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>27</v>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="11">
         <v>0.56000000000000005</v>
@@ -3304,7 +3298,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="9">
         <v>0.86</v>
@@ -3321,7 +3315,9 @@
       <c r="E8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" s="11">
         <v>0.96</v>
       </c>
@@ -3337,7 +3333,9 @@
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G9" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3353,7 +3351,9 @@
       <c r="E10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" s="11">
         <v>0.32</v>
       </c>
@@ -3369,7 +3369,9 @@
       <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" s="9">
         <v>0.18</v>
       </c>
@@ -3385,7 +3387,9 @@
       <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="13">
         <v>0.7</v>
       </c>
